--- a/clk_tests.xlsx
+++ b/clk_tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\STRIKE\08_STIMULATION\001_INTAN\INTAN-RHS2116\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0A3910-684A-4CC1-8864-5E44D73F6CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F618995A-B892-4A03-81D0-64E867EB274F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BBE6869A-1271-401E-B4FD-8C8DE36D08E5}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{BBE6869A-1271-401E-B4FD-8C8DE36D08E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -53,13 +53,13 @@
     <t xml:space="preserve">Minimum stimulation off time: </t>
   </si>
   <si>
-    <t>5 ms</t>
-  </si>
-  <si>
     <t xml:space="preserve">Minimum stimulation on time: </t>
   </si>
   <si>
-    <t>6ms</t>
+    <t>0,5ms</t>
+  </si>
+  <si>
+    <t>25ms</t>
   </si>
 </sst>
 </file>
@@ -95,9 +95,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,7 +433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB3968E-1707-4F87-A349-A3E28287F5A2}">
   <dimension ref="C2:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
@@ -451,7 +450,7 @@
         <v>4</v>
       </c>
       <c r="P2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.3">
@@ -489,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P3" t="s">
         <v>7</v>
@@ -530,47 +529,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <f>$D$2*D3*D4/2</f>
         <v>4161409</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <f t="shared" ref="E6:M6" si="0">$D$2*E3*E4/2</f>
         <v>3276700</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>1638350</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>327670</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>163835</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>2080704.5</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>1638350</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6">
         <f t="shared" si="0"/>
         <v>819175</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6">
         <f t="shared" si="0"/>
         <v>163835</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6">
         <f t="shared" si="0"/>
         <v>81917.5</v>
       </c>
